--- a/manish/courseLaw/LMR/Workbook2.xlsx
+++ b/manish/courseLaw/LMR/Workbook2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14420" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -86,6 +86,49 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Sample 7
+1) Does the UCC apply?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+UCC Article 2 governs contracts for the sale of GOODS. GOODS are movable things at the time of identification to the contract.
+Here the question involves a sale of "widgets" and they are clearly moveable because they were to be “delivered”.
+Therefore, Article 2 of UCC applies.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0">
       <text>
         <r>
@@ -242,8 +285,25 @@
             <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">
-Sample 7
-6) 6/3/99 ACCEPTANCE?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Sample 7
+6) 6/3/99 ACCEPTANCE?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
 Under UCC 2-206 an offer that does not clearly require acceptance in a specific manner can be accepted in any reasonable manner including a promise to ship or shipment of conforming or non- conforming goods.
 Under UCC 2-207 an acceptance that includes varying terms is still effective. If the contract is between merchants the varying term proposed by the offeree may become part of the contract if the offer did not expressly require acceptance according to its terms, the offeror does not object to the varying terms within a reasonable time, and the varying terms are not a material alteration of the offer terms.
 Even when varying terms do not automatically become part of the contract they may become part of the contract by agreement, and the UCC allows modification without additional consideration.
@@ -338,6 +398,114 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Sample 7
+8) BREACH?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Under the PERFECT TENDER RULE of the UCC goods must be supplied exactly as ordered. Any non-conforming delivery is a major breach.
+A seller that delivers non-conforming goods has a right to GIVE NOTICE of intent to cure, and may CURE the shipment of non-conforming goods at any time within the contract period. Further, the seller gets a reasonable amount of extra time beyond the contract period if the original shipment was sent with a reasonable belief it would satisfy the buyer's needs.
+Here Sellco shipped non-conforming goods because it shipped "blue widgets". They were not sent with a reasonable belief they would satisfy the buyer’s needs because they were sent by " mistake". And there is no time left to cure in the contract period because the shipment was on the deadline of "6/8/99”, and
+Therefore, Sellco breached by shipping non-conforming goods, and has no time left to cure.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Sample 7
+9) Buyco's REMEDY?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Under the UCC a buyer who receives nonconforming goods can REJECT the goods and REPUDIATE the contract. The buyer can COVER by buying the goods elsewhere and demand the excess of the cover price over the contract price, or demand the excess of market price over the contract price.
+Here Buyco had a right to reject the goods, and it covered at a price of $5. Since this is less than the $6 contract price, Buyco has suffered no loss as a result of the breach and has no right to receive damages from Sellco.
+Therefore, Buyco's demand for $50,000 has no basis and they would get nothing.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>K</author>
@@ -463,7 +631,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>K</author>
@@ -531,7 +699,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>K</author>
@@ -766,7 +934,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1137">
   <si>
     <t>Year</t>
   </si>
@@ -2838,27 +3006,6 @@
   </si>
   <si>
     <t>Since D agreed to perform the duties of B, D assumed the same liability as B. And since C has the same enforcement rights as A, C's rights and remedies to enforce the contract against D are the same as B.</t>
-  </si>
-  <si>
-    <t>E. Breach</t>
-  </si>
-  <si>
-    <t>Anticipatory Breach</t>
-  </si>
-  <si>
-    <t>Waiver of Breach</t>
-  </si>
-  <si>
-    <t>Breach of Implied Covenant?</t>
-  </si>
-  <si>
-    <t>Breach Major / Minor?</t>
-  </si>
-  <si>
-    <t>Breach on Divisible Contract?</t>
-  </si>
-  <si>
-    <t>Accord And Satisfaction?</t>
   </si>
   <si>
     <t>E. Breach?</t>
@@ -7651,7 +7798,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -7661,10 +7808,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -7677,10 +7824,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -7688,10 +7835,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -7699,10 +7846,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -7710,10 +7857,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -7726,27 +7873,27 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -7764,13 +7911,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="J20" s="13"/>
     </row>
@@ -7779,52 +7926,52 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="J26" s="13"/>
     </row>
@@ -7946,187 +8093,187 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -8154,180 +8301,180 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -8699,168 +8846,168 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
       <c r="F10" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8868,19 +9015,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8888,7 +9035,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -8896,18 +9043,18 @@
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -8915,23 +9062,23 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F38" s="4"/>
     </row>
@@ -9038,86 +9185,86 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -9190,109 +9337,109 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -9503,154 +9650,154 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="18" x14ac:dyDescent="0.2">
@@ -9942,235 +10089,235 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -11052,118 +11199,118 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.2">
@@ -11373,156 +11520,156 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="D24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -11532,13 +11679,13 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D26" s="9"/>
       <c r="G26" s="10" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
       <c r="G27" s="10" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -11548,7 +11695,7 @@
     <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D29" s="6"/>
       <c r="G29" s="10" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -11558,7 +11705,7 @@
     <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D31" s="6"/>
       <c r="G31" s="10" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -11568,13 +11715,13 @@
     <row r="33" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D33" s="6"/>
       <c r="G33" s="10" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" s="9"/>
       <c r="G34" s="10" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.2">
@@ -11584,7 +11731,7 @@
     <row r="36" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.2">
@@ -11592,7 +11739,7 @@
     </row>
     <row r="38" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G38" s="10" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
@@ -11600,7 +11747,7 @@
     </row>
     <row r="40" spans="4:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G40" s="10" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
@@ -11608,12 +11755,12 @@
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G42" s="10" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G43" s="10" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.2">
@@ -11621,7 +11768,7 @@
     </row>
     <row r="45" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G45" s="10" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.2">
@@ -11629,7 +11776,7 @@
     </row>
     <row r="47" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G47" s="10" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.2">
@@ -11637,7 +11784,7 @@
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G49" s="10" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.2">
@@ -11645,7 +11792,7 @@
     </row>
     <row r="51" spans="7:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G51" s="10" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.2">
@@ -11653,7 +11800,7 @@
     </row>
     <row r="53" spans="7:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G53" s="10" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.2">
@@ -11661,7 +11808,7 @@
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G55" s="10" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.2">
@@ -11669,7 +11816,7 @@
     </row>
     <row r="57" spans="7:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G57" s="10" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="58" spans="7:7" x14ac:dyDescent="0.2">
@@ -11677,7 +11824,7 @@
     </row>
     <row r="59" spans="7:7" ht="64" x14ac:dyDescent="0.2">
       <c r="G59" s="10" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.2">
@@ -11685,7 +11832,7 @@
     </row>
     <row r="61" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G61" s="10" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="62" spans="7:7" x14ac:dyDescent="0.2">
@@ -11693,7 +11840,7 @@
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G63" s="10" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="64" spans="7:7" x14ac:dyDescent="0.2">
@@ -11701,7 +11848,7 @@
     </row>
     <row r="65" spans="7:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G65" s="10" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.2">
@@ -11709,7 +11856,7 @@
     </row>
     <row r="67" spans="7:7" ht="64" x14ac:dyDescent="0.2">
       <c r="G67" s="10" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.2">
@@ -11717,7 +11864,7 @@
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G69" s="10" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.2">
@@ -11725,7 +11872,7 @@
     </row>
     <row r="71" spans="7:7" ht="64" x14ac:dyDescent="0.2">
       <c r="G71" s="9" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.2">
@@ -11733,7 +11880,7 @@
     </row>
     <row r="73" spans="7:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G73" s="9" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.2">
@@ -11741,7 +11888,7 @@
     </row>
     <row r="75" spans="7:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G75" s="9" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.2">
@@ -11749,7 +11896,7 @@
     </row>
     <row r="77" spans="7:7" ht="80" x14ac:dyDescent="0.2">
       <c r="G77" s="9" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -12188,124 +12335,124 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -12333,379 +12480,379 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -13079,8 +13226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13355,13 +13502,13 @@
         <v>228</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="208" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -13669,7 +13816,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>293</v>
@@ -13677,12 +13824,12 @@
     </row>
     <row r="35" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -13690,7 +13837,7 @@
     </row>
     <row r="39" spans="1:4" ht="42" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -14737,10 +14884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14756,6 +14905,12 @@
         <v>476</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>477</v>
@@ -14770,188 +14925,158 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
+    <row r="5" spans="1:4" ht="96" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>485</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D12" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D13" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="96" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="D33" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="D34" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="D36" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="80" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14965,424 +15090,425 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/manish/courseLaw/LMR/Workbook2.xlsx
+++ b/manish/courseLaw/LMR/Workbook2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14420" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -13226,8 +13226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15074,7 +15074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
